--- a/Configs/Datas/network/服务器表.xlsx
+++ b/Configs/Datas/network/服务器表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -44,6 +44,9 @@
     <t>port</t>
   </si>
   <si>
+    <t>package_header_length</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
   </si>
   <si>
     <t>端口</t>
+  </si>
+  <si>
+    <t>网络包头长度</t>
   </si>
   <si>
     <t>主要</t>
@@ -1296,7 +1302,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1304,14 +1310,13 @@
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="3" width="12.3727272727273" style="3" customWidth="1"/>
     <col min="4" max="4" width="19.5727272727273" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.5181818181818" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.9363636363636" style="3" customWidth="1"/>
+    <col min="5" max="6" width="22.5181818181818" style="3" customWidth="1"/>
     <col min="7" max="16357" width="9.13636363636364" style="3" customWidth="1"/>
     <col min="16358" max="16358" width="9.13636363636364" style="3"/>
     <col min="16359" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1327,79 +1332,94 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="14.5" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="6"/>
       <c r="B5" s="7">
         <v>1001</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="7">
         <v>10086</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="6"/>
       <c r="B6" s="7">
         <v>1002</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" s="7">
         <v>10086</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="4:4">
